--- a/Team-Data/2014-15/4-15-2014-15.xlsx
+++ b/Team-Data/2014-15/4-15-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E2" t="n">
         <v>60</v>
       </c>
       <c r="F2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G2" t="n">
-        <v>0.732</v>
+        <v>0.741</v>
       </c>
       <c r="H2" t="n">
         <v>48.1</v>
@@ -684,10 +751,10 @@
         <v>38.1</v>
       </c>
       <c r="J2" t="n">
-        <v>81.7</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>0.466</v>
+        <v>0.467</v>
       </c>
       <c r="L2" t="n">
         <v>10</v>
@@ -696,13 +763,13 @@
         <v>26.2</v>
       </c>
       <c r="N2" t="n">
-        <v>0.38</v>
+        <v>0.382</v>
       </c>
       <c r="O2" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="P2" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="Q2" t="n">
         <v>0.778</v>
@@ -714,10 +781,10 @@
         <v>31.8</v>
       </c>
       <c r="T2" t="n">
-        <v>40.6</v>
+        <v>40.5</v>
       </c>
       <c r="U2" t="n">
-        <v>25.7</v>
+        <v>25.9</v>
       </c>
       <c r="V2" t="n">
         <v>14.2</v>
@@ -735,16 +802,16 @@
         <v>17.8</v>
       </c>
       <c r="AA2" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AB2" t="n">
-        <v>102.5</v>
+        <v>102.8</v>
       </c>
       <c r="AC2" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE2" t="n">
         <v>2</v>
@@ -765,10 +832,10 @@
         <v>27</v>
       </c>
       <c r="AK2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL2" t="n">
         <v>4</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>5</v>
       </c>
       <c r="AM2" t="n">
         <v>7</v>
@@ -789,7 +856,7 @@
         <v>30</v>
       </c>
       <c r="AS2" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AT2" t="n">
         <v>28</v>
@@ -804,7 +871,7 @@
         <v>5</v>
       </c>
       <c r="AX2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY2" t="n">
         <v>18</v>
@@ -813,7 +880,7 @@
         <v>1</v>
       </c>
       <c r="BA2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BB2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-15-2014-15</t>
+          <t>2015-04-15</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E3" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F3" t="n">
         <v>42</v>
       </c>
       <c r="G3" t="n">
-        <v>0.488</v>
+        <v>0.481</v>
       </c>
       <c r="H3" t="n">
         <v>48.5</v>
@@ -866,10 +933,10 @@
         <v>38.9</v>
       </c>
       <c r="J3" t="n">
-        <v>87.90000000000001</v>
+        <v>88</v>
       </c>
       <c r="K3" t="n">
-        <v>0.443</v>
+        <v>0.442</v>
       </c>
       <c r="L3" t="n">
         <v>8</v>
@@ -878,28 +945,28 @@
         <v>24.6</v>
       </c>
       <c r="N3" t="n">
-        <v>0.327</v>
+        <v>0.325</v>
       </c>
       <c r="O3" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="P3" t="n">
         <v>20.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.754</v>
+        <v>0.756</v>
       </c>
       <c r="R3" t="n">
         <v>11.1</v>
       </c>
       <c r="S3" t="n">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
       <c r="T3" t="n">
-        <v>43.8</v>
+        <v>43.9</v>
       </c>
       <c r="U3" t="n">
-        <v>24.5</v>
+        <v>24.3</v>
       </c>
       <c r="V3" t="n">
         <v>13.8</v>
@@ -914,19 +981,19 @@
         <v>5.3</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AA3" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.4</v>
+        <v>101.3</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE3" t="n">
         <v>16</v>
@@ -938,7 +1005,7 @@
         <v>16</v>
       </c>
       <c r="AH3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI3" t="n">
         <v>5</v>
@@ -950,7 +1017,7 @@
         <v>21</v>
       </c>
       <c r="AL3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM3" t="n">
         <v>13</v>
@@ -959,22 +1026,22 @@
         <v>27</v>
       </c>
       <c r="AO3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AP3" t="n">
         <v>27</v>
       </c>
       <c r="AQ3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AR3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AS3" t="n">
         <v>11</v>
       </c>
       <c r="AT3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU3" t="n">
         <v>4</v>
@@ -989,16 +1056,16 @@
         <v>30</v>
       </c>
       <c r="AY3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ3" t="n">
         <v>22</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>21</v>
       </c>
       <c r="BA3" t="n">
         <v>26</v>
       </c>
       <c r="BB3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC3" t="n">
         <v>18</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-15-2014-15</t>
+          <t>2015-04-15</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E4" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F4" t="n">
         <v>44</v>
       </c>
       <c r="G4" t="n">
-        <v>0.463</v>
+        <v>0.457</v>
       </c>
       <c r="H4" t="n">
         <v>48.6</v>
@@ -1066,13 +1133,13 @@
         <v>16.6</v>
       </c>
       <c r="P4" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.748</v>
+        <v>0.75</v>
       </c>
       <c r="R4" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="S4" t="n">
         <v>32</v>
@@ -1105,22 +1172,22 @@
         <v>98</v>
       </c>
       <c r="AC4" t="n">
-        <v>-2.9</v>
+        <v>-3.1</v>
       </c>
       <c r="AD4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE4" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AF4" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AH4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AI4" t="n">
         <v>18</v>
@@ -1129,7 +1196,7 @@
         <v>17</v>
       </c>
       <c r="AK4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL4" t="n">
         <v>24</v>
@@ -1144,37 +1211,37 @@
         <v>18</v>
       </c>
       <c r="AP4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AS4" t="n">
         <v>17</v>
       </c>
       <c r="AT4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU4" t="n">
         <v>21</v>
       </c>
       <c r="AV4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AY4" t="n">
         <v>11</v>
       </c>
       <c r="AZ4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA4" t="n">
         <v>18</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-15-2014-15</t>
+          <t>2015-04-15</t>
         </is>
       </c>
     </row>
@@ -1212,46 +1279,46 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E5" t="n">
         <v>33</v>
       </c>
       <c r="F5" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G5" t="n">
-        <v>0.402</v>
+        <v>0.407</v>
       </c>
       <c r="H5" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I5" t="n">
-        <v>35.5</v>
+        <v>35.6</v>
       </c>
       <c r="J5" t="n">
-        <v>84.5</v>
+        <v>84.7</v>
       </c>
       <c r="K5" t="n">
         <v>0.42</v>
       </c>
       <c r="L5" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
-        <v>19.1</v>
+        <v>18.9</v>
       </c>
       <c r="N5" t="n">
-        <v>0.318</v>
+        <v>0.317</v>
       </c>
       <c r="O5" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="P5" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.748</v>
+        <v>0.747</v>
       </c>
       <c r="R5" t="n">
         <v>10</v>
@@ -1260,7 +1327,7 @@
         <v>34.1</v>
       </c>
       <c r="T5" t="n">
-        <v>44.1</v>
+        <v>44.2</v>
       </c>
       <c r="U5" t="n">
         <v>20.2</v>
@@ -1278,19 +1345,19 @@
         <v>5.4</v>
       </c>
       <c r="Z5" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB5" t="n">
         <v>94.2</v>
       </c>
       <c r="AC5" t="n">
-        <v>-3.2</v>
+        <v>-3.1</v>
       </c>
       <c r="AD5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE5" t="n">
         <v>22</v>
@@ -1314,7 +1381,7 @@
         <v>29</v>
       </c>
       <c r="AL5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM5" t="n">
         <v>24</v>
@@ -1326,10 +1393,10 @@
         <v>13</v>
       </c>
       <c r="AP5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR5" t="n">
         <v>25</v>
@@ -1341,7 +1408,7 @@
         <v>10</v>
       </c>
       <c r="AU5" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AV5" t="n">
         <v>1</v>
@@ -1353,10 +1420,10 @@
         <v>7</v>
       </c>
       <c r="AY5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BA5" t="n">
         <v>9</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-15-2014-15</t>
+          <t>2015-04-15</t>
         </is>
       </c>
     </row>
@@ -1394,25 +1461,25 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E6" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F6" t="n">
         <v>32</v>
       </c>
       <c r="G6" t="n">
-        <v>0.61</v>
+        <v>0.605</v>
       </c>
       <c r="H6" t="n">
         <v>48.5</v>
       </c>
       <c r="I6" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="J6" t="n">
-        <v>82.90000000000001</v>
+        <v>83</v>
       </c>
       <c r="K6" t="n">
         <v>0.442</v>
@@ -1421,10 +1488,10 @@
         <v>7.9</v>
       </c>
       <c r="M6" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="N6" t="n">
-        <v>0.353</v>
+        <v>0.354</v>
       </c>
       <c r="O6" t="n">
         <v>19.7</v>
@@ -1433,61 +1500,61 @@
         <v>25.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.783</v>
+        <v>0.782</v>
       </c>
       <c r="R6" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="S6" t="n">
-        <v>34</v>
+        <v>33.9</v>
       </c>
       <c r="T6" t="n">
         <v>45.7</v>
       </c>
       <c r="U6" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="V6" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="W6" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="X6" t="n">
         <v>5.8</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Z6" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="AA6" t="n">
         <v>21.2</v>
       </c>
       <c r="AB6" t="n">
-        <v>100.8</v>
+        <v>100.9</v>
       </c>
       <c r="AC6" t="n">
         <v>3</v>
       </c>
       <c r="AD6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE6" t="n">
         <v>9</v>
       </c>
       <c r="AF6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ6" t="n">
         <v>18</v>
@@ -1508,13 +1575,13 @@
         <v>3</v>
       </c>
       <c r="AP6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ6" t="n">
         <v>3</v>
       </c>
       <c r="AR6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS6" t="n">
         <v>7</v>
@@ -1523,10 +1590,10 @@
         <v>3</v>
       </c>
       <c r="AU6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW6" t="n">
         <v>28</v>
@@ -1535,10 +1602,10 @@
         <v>5</v>
       </c>
       <c r="AY6" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AZ6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA6" t="n">
         <v>6</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-15-2014-15</t>
+          <t>2015-04-15</t>
         </is>
       </c>
     </row>
@@ -1576,58 +1643,58 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E7" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F7" t="n">
         <v>29</v>
       </c>
       <c r="G7" t="n">
-        <v>0.646</v>
+        <v>0.642</v>
       </c>
       <c r="H7" t="n">
         <v>48.2</v>
       </c>
       <c r="I7" t="n">
-        <v>37.7</v>
+        <v>37.6</v>
       </c>
       <c r="J7" t="n">
-        <v>82.2</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K7" t="n">
         <v>0.458</v>
       </c>
       <c r="L7" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="M7" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="N7" t="n">
-        <v>0.367</v>
+        <v>0.364</v>
       </c>
       <c r="O7" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="P7" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.751</v>
+        <v>0.752</v>
       </c>
       <c r="R7" t="n">
         <v>11.1</v>
       </c>
       <c r="S7" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="T7" t="n">
         <v>43</v>
       </c>
       <c r="U7" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="V7" t="n">
         <v>14.3</v>
@@ -1645,16 +1712,16 @@
         <v>18.4</v>
       </c>
       <c r="AA7" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AB7" t="n">
-        <v>103.1</v>
+        <v>103</v>
       </c>
       <c r="AC7" t="n">
         <v>4.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE7" t="n">
         <v>7</v>
@@ -1672,7 +1739,7 @@
         <v>15</v>
       </c>
       <c r="AJ7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK7" t="n">
         <v>8</v>
@@ -1684,10 +1751,10 @@
         <v>2</v>
       </c>
       <c r="AN7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP7" t="n">
         <v>11</v>
@@ -1696,10 +1763,10 @@
         <v>17</v>
       </c>
       <c r="AR7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AS7" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AT7" t="n">
         <v>18</v>
@@ -1729,7 +1796,7 @@
         <v>8</v>
       </c>
       <c r="BC7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-15-2014-15</t>
+          <t>2015-04-15</t>
         </is>
       </c>
     </row>
@@ -1761,13 +1828,13 @@
         <v>81</v>
       </c>
       <c r="E8" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G8" t="n">
-        <v>0.617</v>
+        <v>0.605</v>
       </c>
       <c r="H8" t="n">
         <v>48.5</v>
@@ -1776,10 +1843,10 @@
         <v>39.7</v>
       </c>
       <c r="J8" t="n">
-        <v>85.90000000000001</v>
+        <v>85.8</v>
       </c>
       <c r="K8" t="n">
-        <v>0.462</v>
+        <v>0.463</v>
       </c>
       <c r="L8" t="n">
         <v>8.9</v>
@@ -1791,28 +1858,28 @@
         <v>0.351</v>
       </c>
       <c r="O8" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="P8" t="n">
-        <v>22.5</v>
+        <v>22.3</v>
       </c>
       <c r="Q8" t="n">
         <v>0.751</v>
       </c>
       <c r="R8" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="S8" t="n">
-        <v>31.9</v>
+        <v>31.7</v>
       </c>
       <c r="T8" t="n">
-        <v>42.4</v>
+        <v>42.1</v>
       </c>
       <c r="U8" t="n">
         <v>22.6</v>
       </c>
       <c r="V8" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="W8" t="n">
         <v>8.1</v>
@@ -1824,25 +1891,25 @@
         <v>3.8</v>
       </c>
       <c r="Z8" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AA8" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="AB8" t="n">
-        <v>105.3</v>
+        <v>105.1</v>
       </c>
       <c r="AC8" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AD8" t="n">
         <v>3</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>25</v>
       </c>
       <c r="AE8" t="n">
         <v>9</v>
       </c>
       <c r="AF8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG8" t="n">
         <v>9</v>
@@ -1854,7 +1921,7 @@
         <v>2</v>
       </c>
       <c r="AJ8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AK8" t="n">
         <v>5</v>
@@ -1869,10 +1936,10 @@
         <v>13</v>
       </c>
       <c r="AO8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ8" t="n">
         <v>18</v>
@@ -1881,22 +1948,22 @@
         <v>20</v>
       </c>
       <c r="AS8" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AT8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU8" t="n">
         <v>8</v>
       </c>
       <c r="AV8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX8" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AY8" t="n">
         <v>4</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-15-2014-15</t>
+          <t>2015-04-15</t>
         </is>
       </c>
     </row>
@@ -1940,61 +2007,61 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E9" t="n">
         <v>30</v>
       </c>
       <c r="F9" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G9" t="n">
-        <v>0.366</v>
+        <v>0.37</v>
       </c>
       <c r="H9" t="n">
         <v>48.5</v>
       </c>
       <c r="I9" t="n">
-        <v>37.8</v>
+        <v>37.7</v>
       </c>
       <c r="J9" t="n">
         <v>87.3</v>
       </c>
       <c r="K9" t="n">
-        <v>0.433</v>
+        <v>0.432</v>
       </c>
       <c r="L9" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="M9" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="N9" t="n">
         <v>0.325</v>
       </c>
       <c r="O9" t="n">
-        <v>17.8</v>
+        <v>17.7</v>
       </c>
       <c r="P9" t="n">
-        <v>24.3</v>
+        <v>24.1</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.734</v>
+        <v>0.732</v>
       </c>
       <c r="R9" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="S9" t="n">
         <v>32.4</v>
       </c>
       <c r="T9" t="n">
-        <v>44.7</v>
+        <v>44.8</v>
       </c>
       <c r="U9" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="V9" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="W9" t="n">
         <v>7.8</v>
@@ -2006,19 +2073,19 @@
         <v>6.1</v>
       </c>
       <c r="Z9" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="AA9" t="n">
         <v>20.7</v>
       </c>
       <c r="AB9" t="n">
-        <v>101.5</v>
+        <v>101.2</v>
       </c>
       <c r="AC9" t="n">
         <v>-3.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE9" t="n">
         <v>24</v>
@@ -2030,10 +2097,10 @@
         <v>24</v>
       </c>
       <c r="AH9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ9" t="n">
         <v>2</v>
@@ -2051,7 +2118,7 @@
         <v>28</v>
       </c>
       <c r="AO9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP9" t="n">
         <v>8</v>
@@ -2063,22 +2130,22 @@
         <v>3</v>
       </c>
       <c r="AS9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT9" t="n">
         <v>7</v>
       </c>
       <c r="AU9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AV9" t="n">
         <v>15</v>
       </c>
       <c r="AW9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY9" t="n">
         <v>29</v>
@@ -2090,7 +2157,7 @@
         <v>10</v>
       </c>
       <c r="BB9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC9" t="n">
         <v>24</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-15-2014-15</t>
+          <t>2015-04-15</t>
         </is>
       </c>
     </row>
@@ -2122,28 +2189,28 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E10" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10" t="n">
         <v>50</v>
       </c>
       <c r="G10" t="n">
-        <v>0.39</v>
+        <v>0.383</v>
       </c>
       <c r="H10" t="n">
         <v>48.4</v>
       </c>
       <c r="I10" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="J10" t="n">
-        <v>85.8</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="K10" t="n">
-        <v>0.432</v>
+        <v>0.431</v>
       </c>
       <c r="L10" t="n">
         <v>8.6</v>
@@ -2155,13 +2222,13 @@
         <v>0.344</v>
       </c>
       <c r="O10" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="P10" t="n">
         <v>22.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.703</v>
+        <v>0.702</v>
       </c>
       <c r="R10" t="n">
         <v>12.8</v>
@@ -2179,7 +2246,7 @@
         <v>13.4</v>
       </c>
       <c r="W10" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X10" t="n">
         <v>4.7</v>
@@ -2194,13 +2261,13 @@
         <v>19.3</v>
       </c>
       <c r="AB10" t="n">
-        <v>98.5</v>
+        <v>98.3</v>
       </c>
       <c r="AC10" t="n">
-        <v>-1</v>
+        <v>-1.3</v>
       </c>
       <c r="AD10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
@@ -2218,7 +2285,7 @@
         <v>20</v>
       </c>
       <c r="AJ10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK10" t="n">
         <v>27</v>
@@ -2230,25 +2297,25 @@
         <v>11</v>
       </c>
       <c r="AN10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO10" t="n">
         <v>26</v>
       </c>
       <c r="AP10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ10" t="n">
         <v>29</v>
       </c>
       <c r="AR10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS10" t="n">
         <v>16</v>
       </c>
       <c r="AT10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU10" t="n">
         <v>16</v>
@@ -2257,22 +2324,22 @@
         <v>8</v>
       </c>
       <c r="AW10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX10" t="n">
         <v>13</v>
       </c>
       <c r="AY10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ10" t="n">
         <v>7</v>
       </c>
       <c r="BA10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC10" t="n">
         <v>20</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-15-2014-15</t>
+          <t>2015-04-15</t>
         </is>
       </c>
     </row>
@@ -2304,43 +2371,43 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E11" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F11" t="n">
         <v>15</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8169999999999999</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="H11" t="n">
         <v>48.1</v>
       </c>
       <c r="I11" t="n">
-        <v>41.6</v>
+        <v>41.5</v>
       </c>
       <c r="J11" t="n">
         <v>87</v>
       </c>
       <c r="K11" t="n">
-        <v>0.478</v>
+        <v>0.477</v>
       </c>
       <c r="L11" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="M11" t="n">
         <v>27</v>
       </c>
       <c r="N11" t="n">
-        <v>0.398</v>
+        <v>0.397</v>
       </c>
       <c r="O11" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="P11" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="Q11" t="n">
         <v>0.768</v>
@@ -2349,10 +2416,10 @@
         <v>10.4</v>
       </c>
       <c r="S11" t="n">
-        <v>34.3</v>
+        <v>34.4</v>
       </c>
       <c r="T11" t="n">
-        <v>44.7</v>
+        <v>44.8</v>
       </c>
       <c r="U11" t="n">
         <v>27.4</v>
@@ -2370,19 +2437,19 @@
         <v>3.6</v>
       </c>
       <c r="Z11" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="AA11" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="AB11" t="n">
-        <v>110</v>
+        <v>109.7</v>
       </c>
       <c r="AC11" t="n">
         <v>10.1</v>
       </c>
       <c r="AD11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE11" t="n">
         <v>1</v>
@@ -2415,7 +2482,7 @@
         <v>1</v>
       </c>
       <c r="AO11" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AP11" t="n">
         <v>26</v>
@@ -2451,7 +2518,7 @@
         <v>13</v>
       </c>
       <c r="BA11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BB11" t="n">
         <v>1</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-15-2014-15</t>
+          <t>2015-04-15</t>
         </is>
       </c>
     </row>
@@ -2501,13 +2568,13 @@
         <v>48.3</v>
       </c>
       <c r="I12" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J12" t="n">
         <v>83.40000000000001</v>
       </c>
       <c r="K12" t="n">
-        <v>0.444</v>
+        <v>0.443</v>
       </c>
       <c r="L12" t="n">
         <v>11.4</v>
@@ -2519,52 +2586,52 @@
         <v>0.347</v>
       </c>
       <c r="O12" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="P12" t="n">
-        <v>25.7</v>
+        <v>25.9</v>
       </c>
       <c r="Q12" t="n">
         <v>0.716</v>
       </c>
       <c r="R12" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="S12" t="n">
-        <v>32</v>
+        <v>31.8</v>
       </c>
       <c r="T12" t="n">
         <v>43.6</v>
       </c>
       <c r="U12" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="V12" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="W12" t="n">
         <v>9.5</v>
       </c>
       <c r="X12" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Z12" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="AA12" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AB12" t="n">
-        <v>103.9</v>
+        <v>103.8</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="AE12" t="n">
         <v>4</v>
@@ -2597,19 +2664,19 @@
         <v>14</v>
       </c>
       <c r="AO12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ12" t="n">
         <v>27</v>
       </c>
       <c r="AR12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS12" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AT12" t="n">
         <v>15</v>
@@ -2624,10 +2691,10 @@
         <v>3</v>
       </c>
       <c r="AX12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ12" t="n">
         <v>27</v>
@@ -2636,7 +2703,7 @@
         <v>7</v>
       </c>
       <c r="BB12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC12" t="n">
         <v>7</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-15-2014-15</t>
+          <t>2015-04-15</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E13" t="n">
         <v>38</v>
       </c>
       <c r="F13" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G13" t="n">
-        <v>0.463</v>
+        <v>0.469</v>
       </c>
       <c r="H13" t="n">
         <v>48.4</v>
@@ -2686,10 +2753,10 @@
         <v>36.6</v>
       </c>
       <c r="J13" t="n">
-        <v>83.2</v>
+        <v>83.3</v>
       </c>
       <c r="K13" t="n">
-        <v>0.439</v>
+        <v>0.44</v>
       </c>
       <c r="L13" t="n">
         <v>7.5</v>
@@ -2701,7 +2768,7 @@
         <v>0.352</v>
       </c>
       <c r="O13" t="n">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="P13" t="n">
         <v>22.2</v>
@@ -2713,22 +2780,22 @@
         <v>10.4</v>
       </c>
       <c r="S13" t="n">
-        <v>34.4</v>
+        <v>34.6</v>
       </c>
       <c r="T13" t="n">
-        <v>44.9</v>
+        <v>45</v>
       </c>
       <c r="U13" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="V13" t="n">
         <v>14</v>
       </c>
       <c r="W13" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="X13" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y13" t="n">
         <v>4.7</v>
@@ -2740,19 +2807,19 @@
         <v>21.4</v>
       </c>
       <c r="AB13" t="n">
-        <v>97.3</v>
+        <v>97.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE13" t="n">
         <v>18</v>
       </c>
       <c r="AF13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG13" t="n">
         <v>18</v>
@@ -2761,7 +2828,7 @@
         <v>13</v>
       </c>
       <c r="AI13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ13" t="n">
         <v>15</v>
@@ -2770,7 +2837,7 @@
         <v>23</v>
       </c>
       <c r="AL13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AM13" t="n">
         <v>18</v>
@@ -2779,7 +2846,7 @@
         <v>12</v>
       </c>
       <c r="AO13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP13" t="n">
         <v>18</v>
@@ -2794,7 +2861,7 @@
         <v>3</v>
       </c>
       <c r="AT13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU13" t="n">
         <v>18</v>
@@ -2806,13 +2873,13 @@
         <v>29</v>
       </c>
       <c r="AX13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY13" t="n">
         <v>14</v>
       </c>
       <c r="AZ13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA13" t="n">
         <v>4</v>
@@ -2821,7 +2888,7 @@
         <v>24</v>
       </c>
       <c r="BC13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-15-2014-15</t>
+          <t>2015-04-15</t>
         </is>
       </c>
     </row>
@@ -2940,13 +3007,13 @@
         <v>3</v>
       </c>
       <c r="AH14" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI14" t="n">
         <v>3</v>
       </c>
       <c r="AJ14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK14" t="n">
         <v>2</v>
@@ -2985,7 +3052,7 @@
         <v>2</v>
       </c>
       <c r="AW14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AX14" t="n">
         <v>9</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-15-2014-15</t>
+          <t>2015-04-15</t>
         </is>
       </c>
     </row>
@@ -3047,10 +3114,10 @@
         <v>48.6</v>
       </c>
       <c r="I15" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="J15" t="n">
-        <v>85.7</v>
+        <v>85.5</v>
       </c>
       <c r="K15" t="n">
         <v>0.436</v>
@@ -3059,58 +3126,58 @@
         <v>6.5</v>
       </c>
       <c r="M15" t="n">
-        <v>19</v>
+        <v>18.8</v>
       </c>
       <c r="N15" t="n">
-        <v>0.344</v>
+        <v>0.345</v>
       </c>
       <c r="O15" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="P15" t="n">
-        <v>23.4</v>
+        <v>23.6</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.739</v>
+        <v>0.74</v>
       </c>
       <c r="R15" t="n">
         <v>11.6</v>
       </c>
       <c r="S15" t="n">
-        <v>32.4</v>
+        <v>32.3</v>
       </c>
       <c r="T15" t="n">
-        <v>44</v>
+        <v>43.9</v>
       </c>
       <c r="U15" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="V15" t="n">
         <v>13.2</v>
       </c>
       <c r="W15" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X15" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Z15" t="n">
         <v>21.1</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.2</v>
+        <v>19.4</v>
       </c>
       <c r="AB15" t="n">
-        <v>98.59999999999999</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.7</v>
+        <v>-6.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3122,7 +3189,7 @@
         <v>27</v>
       </c>
       <c r="AH15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI15" t="n">
         <v>19</v>
@@ -3155,10 +3222,10 @@
         <v>8</v>
       </c>
       <c r="AS15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT15" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AU15" t="n">
         <v>20</v>
@@ -3170,7 +3237,7 @@
         <v>22</v>
       </c>
       <c r="AX15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AY15" t="n">
         <v>17</v>
@@ -3179,7 +3246,7 @@
         <v>20</v>
       </c>
       <c r="BA15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB15" t="n">
         <v>17</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-15-2014-15</t>
+          <t>2015-04-15</t>
         </is>
       </c>
     </row>
@@ -3214,25 +3281,25 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E16" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F16" t="n">
         <v>27</v>
       </c>
       <c r="G16" t="n">
-        <v>0.671</v>
+        <v>0.667</v>
       </c>
       <c r="H16" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I16" t="n">
         <v>37.8</v>
       </c>
       <c r="J16" t="n">
-        <v>82.5</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K16" t="n">
         <v>0.458</v>
@@ -3241,10 +3308,10 @@
         <v>5.2</v>
       </c>
       <c r="M16" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="N16" t="n">
-        <v>0.339</v>
+        <v>0.34</v>
       </c>
       <c r="O16" t="n">
         <v>17.6</v>
@@ -3262,10 +3329,10 @@
         <v>32.1</v>
       </c>
       <c r="T16" t="n">
-        <v>42.6</v>
+        <v>42.5</v>
       </c>
       <c r="U16" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="V16" t="n">
         <v>13.3</v>
@@ -3277,43 +3344,43 @@
         <v>4.2</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Z16" t="n">
         <v>19.1</v>
       </c>
       <c r="AA16" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AB16" t="n">
-        <v>98.3</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AC16" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AF16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH16" t="n">
         <v>6</v>
       </c>
       <c r="AI16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ16" t="n">
         <v>23</v>
       </c>
       <c r="AK16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL16" t="n">
         <v>29</v>
@@ -3322,19 +3389,19 @@
         <v>29</v>
       </c>
       <c r="AN16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO16" t="n">
         <v>10</v>
       </c>
       <c r="AP16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ16" t="n">
         <v>7</v>
       </c>
       <c r="AR16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS16" t="n">
         <v>15</v>
@@ -3343,13 +3410,13 @@
         <v>21</v>
       </c>
       <c r="AU16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV16" t="n">
         <v>7</v>
       </c>
       <c r="AW16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX16" t="n">
         <v>24</v>
@@ -3358,13 +3425,13 @@
         <v>20</v>
       </c>
       <c r="AZ16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC16" t="n">
         <v>8</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-15-2014-15</t>
+          <t>2015-04-15</t>
         </is>
       </c>
     </row>
@@ -3396,40 +3463,40 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E17" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F17" t="n">
         <v>45</v>
       </c>
       <c r="G17" t="n">
-        <v>0.451</v>
+        <v>0.444</v>
       </c>
       <c r="H17" t="n">
         <v>48.1</v>
       </c>
       <c r="I17" t="n">
-        <v>35.2</v>
+        <v>35.1</v>
       </c>
       <c r="J17" t="n">
-        <v>77.2</v>
+        <v>77</v>
       </c>
       <c r="K17" t="n">
         <v>0.456</v>
       </c>
       <c r="L17" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="M17" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="N17" t="n">
-        <v>0.335</v>
+        <v>0.334</v>
       </c>
       <c r="O17" t="n">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="P17" t="n">
         <v>23.7</v>
@@ -3456,7 +3523,7 @@
         <v>7.8</v>
       </c>
       <c r="X17" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y17" t="n">
         <v>4.4</v>
@@ -3468,13 +3535,13 @@
         <v>20.9</v>
       </c>
       <c r="AB17" t="n">
-        <v>94.7</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="AC17" t="n">
-        <v>-2.6</v>
+        <v>-2.7</v>
       </c>
       <c r="AD17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE17" t="n">
         <v>21</v>
@@ -3489,7 +3556,7 @@
         <v>26</v>
       </c>
       <c r="AI17" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AJ17" t="n">
         <v>30</v>
@@ -3531,10 +3598,10 @@
         <v>21</v>
       </c>
       <c r="AW17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX17" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AY17" t="n">
         <v>8</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-15-2014-15</t>
+          <t>2015-04-15</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E18" t="n">
         <v>41</v>
       </c>
       <c r="F18" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5</v>
+        <v>0.506</v>
       </c>
       <c r="H18" t="n">
         <v>48.6</v>
@@ -3596,7 +3663,7 @@
         <v>37.6</v>
       </c>
       <c r="J18" t="n">
-        <v>82</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K18" t="n">
         <v>0.459</v>
@@ -3608,55 +3675,55 @@
         <v>18.3</v>
       </c>
       <c r="N18" t="n">
-        <v>0.363</v>
+        <v>0.364</v>
       </c>
       <c r="O18" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="P18" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="Q18" t="n">
         <v>0.757</v>
       </c>
       <c r="R18" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="S18" t="n">
         <v>31.4</v>
       </c>
       <c r="T18" t="n">
-        <v>42.1</v>
+        <v>42</v>
       </c>
       <c r="U18" t="n">
-        <v>23.6</v>
+        <v>23.4</v>
       </c>
       <c r="V18" t="n">
         <v>16.7</v>
       </c>
       <c r="W18" t="n">
-        <v>9.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="X18" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y18" t="n">
         <v>4.8</v>
       </c>
       <c r="Z18" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="AA18" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AB18" t="n">
         <v>97.8</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE18" t="n">
         <v>15</v>
@@ -3668,7 +3735,7 @@
         <v>15</v>
       </c>
       <c r="AH18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AI18" t="n">
         <v>16</v>
@@ -3689,7 +3756,7 @@
         <v>7</v>
       </c>
       <c r="AO18" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AP18" t="n">
         <v>25</v>
@@ -3716,10 +3783,10 @@
         <v>1</v>
       </c>
       <c r="AX18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ18" t="n">
         <v>28</v>
@@ -3731,7 +3798,7 @@
         <v>22</v>
       </c>
       <c r="BC18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-15-2014-15</t>
+          <t>2015-04-15</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
       </c>
       <c r="F19" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G19" t="n">
-        <v>0.195</v>
+        <v>0.198</v>
       </c>
       <c r="H19" t="n">
         <v>48.3</v>
@@ -3784,7 +3851,7 @@
         <v>0.438</v>
       </c>
       <c r="L19" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="M19" t="n">
         <v>14.9</v>
@@ -3793,19 +3860,19 @@
         <v>0.332</v>
       </c>
       <c r="O19" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="P19" t="n">
-        <v>25.7</v>
+        <v>25.6</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.776</v>
+        <v>0.775</v>
       </c>
       <c r="R19" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="S19" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="T19" t="n">
         <v>40.9</v>
@@ -3826,19 +3893,19 @@
         <v>5.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="AA19" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AB19" t="n">
-        <v>97.8</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="AC19" t="n">
-        <v>-8.800000000000001</v>
+        <v>-8.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE19" t="n">
         <v>30</v>
@@ -3850,7 +3917,7 @@
         <v>30</v>
       </c>
       <c r="AH19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI19" t="n">
         <v>25</v>
@@ -3874,7 +3941,7 @@
         <v>2</v>
       </c>
       <c r="AP19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ19" t="n">
         <v>6</v>
@@ -3889,7 +3956,7 @@
         <v>27</v>
       </c>
       <c r="AU19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AV19" t="n">
         <v>23</v>
@@ -3904,7 +3971,7 @@
         <v>26</v>
       </c>
       <c r="AZ19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA19" t="n">
         <v>5</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-15-2014-15</t>
+          <t>2015-04-15</t>
         </is>
       </c>
     </row>
@@ -3957,40 +4024,40 @@
         <v>48.2</v>
       </c>
       <c r="I20" t="n">
-        <v>37.9</v>
+        <v>37.8</v>
       </c>
       <c r="J20" t="n">
-        <v>82.59999999999999</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L20" t="n">
         <v>7.2</v>
       </c>
       <c r="M20" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="N20" t="n">
-        <v>0.372</v>
+        <v>0.369</v>
       </c>
       <c r="O20" t="n">
         <v>16.4</v>
       </c>
       <c r="P20" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.756</v>
+        <v>0.752</v>
       </c>
       <c r="R20" t="n">
-        <v>11.3</v>
+        <v>11.5</v>
       </c>
       <c r="S20" t="n">
-        <v>31.9</v>
+        <v>32</v>
       </c>
       <c r="T20" t="n">
-        <v>43.2</v>
+        <v>43.6</v>
       </c>
       <c r="U20" t="n">
         <v>22</v>
@@ -4002,7 +4069,7 @@
         <v>6.7</v>
       </c>
       <c r="X20" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="Y20" t="n">
         <v>5.8</v>
@@ -4011,25 +4078,25 @@
         <v>18.7</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="AB20" t="n">
-        <v>99.3</v>
+        <v>99.2</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="AD20" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="AE20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF20" t="n">
         <v>13</v>
       </c>
       <c r="AG20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH20" t="n">
         <v>23</v>
@@ -4038,10 +4105,10 @@
         <v>12</v>
       </c>
       <c r="AJ20" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AK20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL20" t="n">
         <v>19</v>
@@ -4059,13 +4126,13 @@
         <v>20</v>
       </c>
       <c r="AQ20" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AR20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS20" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AT20" t="n">
         <v>16</v>
@@ -4077,7 +4144,7 @@
         <v>6</v>
       </c>
       <c r="AW20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AX20" t="n">
         <v>1</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-15-2014-15</t>
+          <t>2015-04-15</t>
         </is>
       </c>
     </row>
@@ -4124,25 +4191,25 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E21" t="n">
         <v>17</v>
       </c>
       <c r="F21" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G21" t="n">
-        <v>0.207</v>
+        <v>0.21</v>
       </c>
       <c r="H21" t="n">
         <v>48.4</v>
       </c>
       <c r="I21" t="n">
-        <v>35.1</v>
+        <v>35.2</v>
       </c>
       <c r="J21" t="n">
-        <v>82</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K21" t="n">
         <v>0.428</v>
@@ -4157,13 +4224,13 @@
         <v>0.347</v>
       </c>
       <c r="O21" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="P21" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.769</v>
+        <v>0.771</v>
       </c>
       <c r="R21" t="n">
         <v>10.6</v>
@@ -4178,7 +4245,7 @@
         <v>21.3</v>
       </c>
       <c r="V21" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="W21" t="n">
         <v>7</v>
@@ -4193,16 +4260,16 @@
         <v>21.6</v>
       </c>
       <c r="AA21" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="AB21" t="n">
         <v>91.90000000000001</v>
       </c>
       <c r="AC21" t="n">
-        <v>-9.300000000000001</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="AD21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE21" t="n">
         <v>29</v>
@@ -4217,10 +4284,10 @@
         <v>13</v>
       </c>
       <c r="AI21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK21" t="n">
         <v>28</v>
@@ -4238,7 +4305,7 @@
         <v>29</v>
       </c>
       <c r="AP21" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AQ21" t="n">
         <v>8</v>
@@ -4256,10 +4323,10 @@
         <v>19</v>
       </c>
       <c r="AV21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX21" t="n">
         <v>14</v>
@@ -4274,7 +4341,7 @@
         <v>25</v>
       </c>
       <c r="BB21" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BC21" t="n">
         <v>30</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-15-2014-15</t>
+          <t>2015-04-15</t>
         </is>
       </c>
     </row>
@@ -4306,28 +4373,28 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E22" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="n">
         <v>37</v>
       </c>
       <c r="G22" t="n">
-        <v>0.549</v>
+        <v>0.543</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
       </c>
       <c r="I22" t="n">
-        <v>38.8</v>
+        <v>38.7</v>
       </c>
       <c r="J22" t="n">
-        <v>86.8</v>
+        <v>86.7</v>
       </c>
       <c r="K22" t="n">
-        <v>0.447</v>
+        <v>0.446</v>
       </c>
       <c r="L22" t="n">
         <v>7.7</v>
@@ -4336,22 +4403,22 @@
         <v>22.7</v>
       </c>
       <c r="N22" t="n">
-        <v>0.339</v>
+        <v>0.338</v>
       </c>
       <c r="O22" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="P22" t="n">
         <v>24.6</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.754</v>
+        <v>0.755</v>
       </c>
       <c r="R22" t="n">
         <v>12.8</v>
       </c>
       <c r="S22" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="T22" t="n">
         <v>47.5</v>
@@ -4378,13 +4445,13 @@
         <v>20.4</v>
       </c>
       <c r="AB22" t="n">
-        <v>104</v>
+        <v>103.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="AD22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE22" t="n">
         <v>13</v>
@@ -4399,19 +4466,19 @@
         <v>18</v>
       </c>
       <c r="AI22" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AJ22" t="n">
         <v>4</v>
       </c>
       <c r="AK22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL22" t="n">
         <v>16</v>
       </c>
       <c r="AM22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AN22" t="n">
         <v>23</v>
@@ -4420,13 +4487,13 @@
         <v>5</v>
       </c>
       <c r="AP22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS22" t="n">
         <v>2</v>
@@ -4435,10 +4502,10 @@
         <v>1</v>
       </c>
       <c r="AU22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW22" t="n">
         <v>21</v>
@@ -4447,16 +4514,16 @@
         <v>6</v>
       </c>
       <c r="AY22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ22" t="n">
         <v>29</v>
       </c>
       <c r="BA22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC22" t="n">
         <v>12</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-15-2014-15</t>
+          <t>2015-04-15</t>
         </is>
       </c>
     </row>
@@ -4503,40 +4570,40 @@
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>37.6</v>
+        <v>37.5</v>
       </c>
       <c r="J23" t="n">
-        <v>82.8</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>0.454</v>
+        <v>0.453</v>
       </c>
       <c r="L23" t="n">
         <v>6.8</v>
       </c>
       <c r="M23" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="N23" t="n">
         <v>0.347</v>
       </c>
       <c r="O23" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="P23" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.729</v>
+        <v>0.732</v>
       </c>
       <c r="R23" t="n">
         <v>10</v>
       </c>
       <c r="S23" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="T23" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="U23" t="n">
         <v>20.7</v>
@@ -4551,13 +4618,13 @@
         <v>3.8</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="Z23" t="n">
         <v>20.9</v>
       </c>
       <c r="AA23" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="AB23" t="n">
         <v>95.8</v>
@@ -4566,7 +4633,7 @@
         <v>-5.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="AE23" t="n">
         <v>26</v>
@@ -4578,7 +4645,7 @@
         <v>26</v>
       </c>
       <c r="AH23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI23" t="n">
         <v>17</v>
@@ -4602,22 +4669,22 @@
         <v>30</v>
       </c>
       <c r="AP23" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AQ23" t="n">
         <v>25</v>
       </c>
       <c r="AR23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AS23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT23" t="n">
         <v>25</v>
       </c>
       <c r="AU23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV23" t="n">
         <v>22</v>
@@ -4629,10 +4696,10 @@
         <v>29</v>
       </c>
       <c r="AY23" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AZ23" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA23" t="n">
         <v>30</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-15-2014-15</t>
+          <t>2015-04-15</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E24" t="n">
         <v>18</v>
       </c>
       <c r="F24" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G24" t="n">
-        <v>0.22</v>
+        <v>0.222</v>
       </c>
       <c r="H24" t="n">
         <v>48.3</v>
@@ -4691,25 +4758,25 @@
         <v>82.59999999999999</v>
       </c>
       <c r="K24" t="n">
-        <v>0.408</v>
+        <v>0.407</v>
       </c>
       <c r="L24" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="M24" t="n">
         <v>26.3</v>
       </c>
       <c r="N24" t="n">
-        <v>0.32</v>
+        <v>0.322</v>
       </c>
       <c r="O24" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="P24" t="n">
         <v>23.8</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.676</v>
+        <v>0.674</v>
       </c>
       <c r="R24" t="n">
         <v>11.9</v>
@@ -4718,7 +4785,7 @@
         <v>30.9</v>
       </c>
       <c r="T24" t="n">
-        <v>42.9</v>
+        <v>42.8</v>
       </c>
       <c r="U24" t="n">
         <v>20.5</v>
@@ -4727,13 +4794,13 @@
         <v>17.7</v>
       </c>
       <c r="W24" t="n">
-        <v>9.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="X24" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Y24" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Z24" t="n">
         <v>21.7</v>
@@ -4742,13 +4809,13 @@
         <v>20.2</v>
       </c>
       <c r="AB24" t="n">
-        <v>92</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="AC24" t="n">
         <v>-9</v>
       </c>
       <c r="AD24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE24" t="n">
         <v>28</v>
@@ -4760,7 +4827,7 @@
         <v>28</v>
       </c>
       <c r="AH24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI24" t="n">
         <v>30</v>
@@ -4781,7 +4848,7 @@
         <v>29</v>
       </c>
       <c r="AO24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP24" t="n">
         <v>9</v>
@@ -4799,7 +4866,7 @@
         <v>19</v>
       </c>
       <c r="AU24" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV24" t="n">
         <v>30</v>
@@ -4817,10 +4884,10 @@
         <v>26</v>
       </c>
       <c r="BA24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB24" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BC24" t="n">
         <v>29</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-15-2014-15</t>
+          <t>2015-04-15</t>
         </is>
       </c>
     </row>
@@ -4933,7 +5000,7 @@
         <v>1</v>
       </c>
       <c r="AE25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF25" t="n">
         <v>17</v>
@@ -4942,10 +5009,10 @@
         <v>17</v>
       </c>
       <c r="AH25" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AI25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ25" t="n">
         <v>7</v>
@@ -4960,7 +5027,7 @@
         <v>10</v>
       </c>
       <c r="AN25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO25" t="n">
         <v>21</v>
@@ -4972,7 +5039,7 @@
         <v>11</v>
       </c>
       <c r="AR25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS25" t="n">
         <v>14</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-15-2014-15</t>
+          <t>2015-04-15</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E26" t="n">
         <v>51</v>
       </c>
       <c r="F26" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G26" t="n">
-        <v>0.622</v>
+        <v>0.63</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
@@ -5052,19 +5119,19 @@
         <v>38.7</v>
       </c>
       <c r="J26" t="n">
-        <v>86</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>0.45</v>
+        <v>0.451</v>
       </c>
       <c r="L26" t="n">
-        <v>9.800000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="M26" t="n">
         <v>27.2</v>
       </c>
       <c r="N26" t="n">
-        <v>0.362</v>
+        <v>0.363</v>
       </c>
       <c r="O26" t="n">
         <v>15.5</v>
@@ -5073,19 +5140,19 @@
         <v>19.4</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.801</v>
+        <v>0.8</v>
       </c>
       <c r="R26" t="n">
         <v>10.7</v>
       </c>
       <c r="S26" t="n">
-        <v>35.1</v>
+        <v>35.2</v>
       </c>
       <c r="T26" t="n">
         <v>45.9</v>
       </c>
       <c r="U26" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="V26" t="n">
         <v>13.6</v>
@@ -5106,13 +5173,13 @@
         <v>18.7</v>
       </c>
       <c r="AB26" t="n">
-        <v>102.8</v>
+        <v>102.9</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE26" t="n">
         <v>8</v>
@@ -5127,13 +5194,13 @@
         <v>13</v>
       </c>
       <c r="AI26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ26" t="n">
         <v>5</v>
       </c>
       <c r="AK26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL26" t="n">
         <v>6</v>
@@ -5145,7 +5212,7 @@
         <v>8</v>
       </c>
       <c r="AO26" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AP26" t="n">
         <v>28</v>
@@ -5172,7 +5239,7 @@
         <v>27</v>
       </c>
       <c r="AX26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY26" t="n">
         <v>3</v>
@@ -5181,13 +5248,13 @@
         <v>2</v>
       </c>
       <c r="BA26" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BB26" t="n">
         <v>9</v>
       </c>
       <c r="BC26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-15-2014-15</t>
+          <t>2015-04-15</t>
         </is>
       </c>
     </row>
@@ -5216,28 +5283,28 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E27" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F27" t="n">
         <v>53</v>
       </c>
       <c r="G27" t="n">
-        <v>0.354</v>
+        <v>0.346</v>
       </c>
       <c r="H27" t="n">
         <v>48.4</v>
       </c>
       <c r="I27" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="J27" t="n">
         <v>80.7</v>
       </c>
       <c r="K27" t="n">
-        <v>0.455</v>
+        <v>0.454</v>
       </c>
       <c r="L27" t="n">
         <v>5.6</v>
@@ -5246,28 +5313,28 @@
         <v>16.5</v>
       </c>
       <c r="N27" t="n">
-        <v>0.341</v>
+        <v>0.34</v>
       </c>
       <c r="O27" t="n">
         <v>22.3</v>
       </c>
       <c r="P27" t="n">
-        <v>29.3</v>
+        <v>29.1</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.762</v>
+        <v>0.766</v>
       </c>
       <c r="R27" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="S27" t="n">
-        <v>33.3</v>
+        <v>33.2</v>
       </c>
       <c r="T27" t="n">
         <v>44.2</v>
       </c>
       <c r="U27" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="V27" t="n">
         <v>16.3</v>
@@ -5285,16 +5352,16 @@
         <v>20.7</v>
       </c>
       <c r="AA27" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="AB27" t="n">
-        <v>101.3</v>
+        <v>101.1</v>
       </c>
       <c r="AC27" t="n">
-        <v>-3.7</v>
+        <v>-4</v>
       </c>
       <c r="AD27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE27" t="n">
         <v>25</v>
@@ -5309,7 +5376,7 @@
         <v>13</v>
       </c>
       <c r="AI27" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AJ27" t="n">
         <v>28</v>
@@ -5324,7 +5391,7 @@
         <v>28</v>
       </c>
       <c r="AN27" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AO27" t="n">
         <v>1</v>
@@ -5336,7 +5403,7 @@
         <v>10</v>
       </c>
       <c r="AR27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS27" t="n">
         <v>9</v>
@@ -5345,13 +5412,13 @@
         <v>9</v>
       </c>
       <c r="AU27" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AV27" t="n">
         <v>27</v>
       </c>
       <c r="AW27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AX27" t="n">
         <v>28</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-15-2014-15</t>
+          <t>2015-04-15</t>
         </is>
       </c>
     </row>
@@ -5401,37 +5468,37 @@
         <v>81</v>
       </c>
       <c r="E28" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F28" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G28" t="n">
-        <v>0.667</v>
+        <v>0.679</v>
       </c>
       <c r="H28" t="n">
         <v>48.7</v>
       </c>
       <c r="I28" t="n">
-        <v>39.1</v>
+        <v>39</v>
       </c>
       <c r="J28" t="n">
-        <v>83.8</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K28" t="n">
         <v>0.467</v>
       </c>
       <c r="L28" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M28" t="n">
-        <v>22.5</v>
+        <v>22.7</v>
       </c>
       <c r="N28" t="n">
-        <v>0.364</v>
+        <v>0.367</v>
       </c>
       <c r="O28" t="n">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="P28" t="n">
         <v>21.5</v>
@@ -5440,22 +5507,22 @@
         <v>0.78</v>
       </c>
       <c r="R28" t="n">
-        <v>9.800000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="S28" t="n">
-        <v>33.9</v>
+        <v>33.8</v>
       </c>
       <c r="T28" t="n">
         <v>43.7</v>
       </c>
       <c r="U28" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="V28" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="W28" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="X28" t="n">
         <v>5.4</v>
@@ -5476,16 +5543,16 @@
         <v>6.3</v>
       </c>
       <c r="AD28" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="AE28" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AF28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AG28" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AH28" t="n">
         <v>1</v>
@@ -5497,16 +5564,16 @@
         <v>11</v>
       </c>
       <c r="AK28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL28" t="n">
         <v>12</v>
       </c>
       <c r="AM28" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AN28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO28" t="n">
         <v>17</v>
@@ -5530,10 +5597,10 @@
         <v>5</v>
       </c>
       <c r="AV28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AW28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX28" t="n">
         <v>8</v>
@@ -5545,7 +5612,7 @@
         <v>8</v>
       </c>
       <c r="BA28" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB28" t="n">
         <v>7</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-15-2014-15</t>
+          <t>2015-04-15</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E29" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F29" t="n">
         <v>33</v>
       </c>
       <c r="G29" t="n">
-        <v>0.598</v>
+        <v>0.593</v>
       </c>
       <c r="H29" t="n">
         <v>48.4</v>
@@ -5598,37 +5665,37 @@
         <v>37.9</v>
       </c>
       <c r="J29" t="n">
-        <v>83.3</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K29" t="n">
         <v>0.455</v>
       </c>
       <c r="L29" t="n">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="M29" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="N29" t="n">
         <v>0.352</v>
       </c>
       <c r="O29" t="n">
-        <v>19.3</v>
+        <v>19.5</v>
       </c>
       <c r="P29" t="n">
-        <v>24.6</v>
+        <v>24.8</v>
       </c>
       <c r="Q29" t="n">
         <v>0.787</v>
       </c>
       <c r="R29" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="S29" t="n">
-        <v>30.8</v>
+        <v>30.9</v>
       </c>
       <c r="T29" t="n">
-        <v>41.5</v>
+        <v>41.7</v>
       </c>
       <c r="U29" t="n">
         <v>20.7</v>
@@ -5643,22 +5710,22 @@
         <v>4.4</v>
       </c>
       <c r="Y29" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z29" t="n">
         <v>20.9</v>
       </c>
       <c r="AA29" t="n">
-        <v>20.3</v>
+        <v>20.5</v>
       </c>
       <c r="AB29" t="n">
-        <v>104</v>
+        <v>104.1</v>
       </c>
       <c r="AC29" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AD29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE29" t="n">
         <v>11</v>
@@ -5676,7 +5743,7 @@
         <v>11</v>
       </c>
       <c r="AJ29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK29" t="n">
         <v>12</v>
@@ -5694,7 +5761,7 @@
         <v>4</v>
       </c>
       <c r="AP29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ29" t="n">
         <v>2</v>
@@ -5727,7 +5794,7 @@
         <v>19</v>
       </c>
       <c r="BA29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BB29" t="n">
         <v>4</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-15-2014-15</t>
+          <t>2015-04-15</t>
         </is>
       </c>
     </row>
@@ -5762,46 +5829,46 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E30" t="n">
         <v>38</v>
       </c>
       <c r="F30" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G30" t="n">
-        <v>0.463</v>
+        <v>0.469</v>
       </c>
       <c r="H30" t="n">
         <v>48.1</v>
       </c>
       <c r="I30" t="n">
-        <v>35.4</v>
+        <v>35.3</v>
       </c>
       <c r="J30" t="n">
-        <v>79.2</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="K30" t="n">
-        <v>0.447</v>
+        <v>0.448</v>
       </c>
       <c r="L30" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="M30" t="n">
         <v>21.7</v>
       </c>
       <c r="N30" t="n">
-        <v>0.343</v>
+        <v>0.345</v>
       </c>
       <c r="O30" t="n">
         <v>17</v>
       </c>
       <c r="P30" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.721</v>
+        <v>0.723</v>
       </c>
       <c r="R30" t="n">
         <v>12</v>
@@ -5819,13 +5886,13 @@
         <v>15.3</v>
       </c>
       <c r="W30" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X30" t="n">
         <v>6</v>
       </c>
       <c r="Y30" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z30" t="n">
         <v>19.3</v>
@@ -5834,19 +5901,19 @@
         <v>19.6</v>
       </c>
       <c r="AB30" t="n">
-        <v>95.09999999999999</v>
+        <v>95.2</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE30" t="n">
         <v>18</v>
       </c>
       <c r="AF30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG30" t="n">
         <v>18</v>
@@ -5861,16 +5928,16 @@
         <v>29</v>
       </c>
       <c r="AK30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM30" t="n">
         <v>17</v>
       </c>
       <c r="AN30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO30" t="n">
         <v>14</v>
@@ -5888,7 +5955,7 @@
         <v>19</v>
       </c>
       <c r="AT30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU30" t="n">
         <v>29</v>
@@ -5903,10 +5970,10 @@
         <v>3</v>
       </c>
       <c r="AY30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA30" t="n">
         <v>22</v>
@@ -5915,7 +5982,7 @@
         <v>26</v>
       </c>
       <c r="BC30" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-15-2014-15</t>
+          <t>2015-04-15</t>
         </is>
       </c>
     </row>
@@ -5944,31 +6011,31 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E31" t="n">
         <v>46</v>
       </c>
       <c r="F31" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="H31" t="n">
-        <v>48.7</v>
+        <v>48.6</v>
       </c>
       <c r="I31" t="n">
-        <v>38.3</v>
+        <v>38.2</v>
       </c>
       <c r="J31" t="n">
-        <v>82.8</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K31" t="n">
-        <v>0.462</v>
+        <v>0.463</v>
       </c>
       <c r="L31" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="M31" t="n">
         <v>16.8</v>
@@ -5989,10 +6056,10 @@
         <v>10.5</v>
       </c>
       <c r="S31" t="n">
-        <v>34.2</v>
+        <v>34.1</v>
       </c>
       <c r="T31" t="n">
-        <v>44.7</v>
+        <v>44.6</v>
       </c>
       <c r="U31" t="n">
         <v>24</v>
@@ -6010,19 +6077,19 @@
         <v>4.3</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AA31" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AB31" t="n">
-        <v>98.5</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="AD31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE31" t="n">
         <v>12</v>
@@ -6040,13 +6107,13 @@
         <v>9</v>
       </c>
       <c r="AJ31" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AK31" t="n">
         <v>6</v>
       </c>
       <c r="AL31" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM31" t="n">
         <v>27</v>
@@ -6055,7 +6122,7 @@
         <v>9</v>
       </c>
       <c r="AO31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP31" t="n">
         <v>23</v>
@@ -6082,13 +6149,13 @@
         <v>20</v>
       </c>
       <c r="AX31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY31" t="n">
         <v>6</v>
       </c>
       <c r="AZ31" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA31" t="n">
         <v>21</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-15-2014-15</t>
+          <t>2015-04-15</t>
         </is>
       </c>
     </row>
